--- a/state_results/Contact_Recreation/LakeWiritoa_397e5874ee.xlsx
+++ b/state_results/Contact_Recreation/LakeWiritoa_397e5874ee.xlsx
@@ -908,7 +908,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr"/>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
       <c r="D6" t="inlineStr">
         <is>
           <t>2015 - 2019</t>
@@ -1344,7 +1348,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr"/>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
       <c r="D11" t="inlineStr">
         <is>
           <t>2016 - 2020</t>
@@ -1780,7 +1788,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Good</t>
+        </is>
+      </c>
       <c r="D16" t="inlineStr">
         <is>
           <t>2017 - 2021</t>
@@ -2216,7 +2228,11 @@
           <t>E. coli (Primary Contact)</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Fair</t>
+        </is>
+      </c>
       <c r="D21" t="inlineStr">
         <is>
           <t>2018 - 2022</t>

--- a/state_results/Contact_Recreation/LakeWiritoa_397e5874ee.xlsx
+++ b/state_results/Contact_Recreation/LakeWiritoa_397e5874ee.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="46">
   <si>
     <t>site name</t>
   </si>
@@ -122,6 +122,12 @@
   </si>
   <si>
     <t>2019 - 2023</t>
+  </si>
+  <si>
+    <t>2020 - 2024</t>
+  </si>
+  <si>
+    <t>2021 - 2025</t>
   </si>
   <si>
     <t>Lake</t>
@@ -503,7 +509,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V26"/>
+  <dimension ref="A1:V36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -591,13 +597,13 @@
         <v>31</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F2">
         <v>10</v>
       </c>
       <c r="G2">
-        <v>38.842114718556</v>
+        <v>38.6920858838774</v>
       </c>
       <c r="H2">
         <v>457</v>
@@ -630,19 +636,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R2" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" spans="1:22">
@@ -659,13 +665,13 @@
         <v>31</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F3">
         <v>10</v>
       </c>
       <c r="G3">
-        <v>38.842114718556</v>
+        <v>38.6920858838774</v>
       </c>
       <c r="H3">
         <v>457</v>
@@ -698,19 +704,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:22">
@@ -727,13 +733,13 @@
         <v>31</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4">
-        <v>38.842114718556</v>
+        <v>38.6920858838774</v>
       </c>
       <c r="H4">
         <v>457</v>
@@ -766,19 +772,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:22">
@@ -795,13 +801,13 @@
         <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5">
         <v>10</v>
       </c>
       <c r="G5">
-        <v>38.842114718556</v>
+        <v>38.6920858838774</v>
       </c>
       <c r="H5">
         <v>457</v>
@@ -834,19 +840,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:22">
@@ -863,13 +869,13 @@
         <v>31</v>
       </c>
       <c r="E6" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F6">
         <v>10</v>
       </c>
       <c r="G6">
-        <v>38.842114718556</v>
+        <v>38.6920858838774</v>
       </c>
       <c r="H6">
         <v>457</v>
@@ -902,19 +908,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:22">
@@ -931,13 +937,13 @@
         <v>32</v>
       </c>
       <c r="E7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F7">
         <v>10</v>
       </c>
       <c r="G7">
-        <v>48.2074258047387</v>
+        <v>48.1031423066075</v>
       </c>
       <c r="H7">
         <v>457</v>
@@ -970,19 +976,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R7" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T7" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V7" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:22">
@@ -999,13 +1005,13 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F8">
         <v>10</v>
       </c>
       <c r="G8">
-        <v>48.2074258047387</v>
+        <v>48.1031423066075</v>
       </c>
       <c r="H8">
         <v>457</v>
@@ -1038,19 +1044,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S8" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V8" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:22">
@@ -1067,13 +1073,13 @@
         <v>32</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F9">
         <v>10</v>
       </c>
       <c r="G9">
-        <v>48.2074258047387</v>
+        <v>48.1031423066075</v>
       </c>
       <c r="H9">
         <v>457</v>
@@ -1106,19 +1112,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R9" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:22">
@@ -1135,13 +1141,13 @@
         <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F10">
         <v>10</v>
       </c>
       <c r="G10">
-        <v>48.2074258047387</v>
+        <v>48.1031423066075</v>
       </c>
       <c r="H10">
         <v>457</v>
@@ -1174,19 +1180,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:22">
@@ -1203,13 +1209,13 @@
         <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11">
-        <v>48.2074258047387</v>
+        <v>48.1031423066075</v>
       </c>
       <c r="H11">
         <v>457</v>
@@ -1242,19 +1248,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V11" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:22">
@@ -1271,13 +1277,13 @@
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F12">
         <v>10</v>
       </c>
       <c r="G12">
-        <v>48.9306584426422</v>
+        <v>48.8540129769647</v>
       </c>
       <c r="H12">
         <v>457</v>
@@ -1310,19 +1316,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R12" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S12" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U12" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:22">
@@ -1339,13 +1345,13 @@
         <v>33</v>
       </c>
       <c r="E13" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F13">
         <v>10</v>
       </c>
       <c r="G13">
-        <v>48.9306584426422</v>
+        <v>48.8540129769647</v>
       </c>
       <c r="H13">
         <v>457</v>
@@ -1378,19 +1384,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R13" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S13" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U13" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:22">
@@ -1407,13 +1413,13 @@
         <v>33</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F14">
         <v>10</v>
       </c>
       <c r="G14">
-        <v>48.9306584426422</v>
+        <v>48.8540129769647</v>
       </c>
       <c r="H14">
         <v>457</v>
@@ -1446,19 +1452,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R14" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S14" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U14" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V14" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:22">
@@ -1475,13 +1481,13 @@
         <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F15">
         <v>10</v>
       </c>
       <c r="G15">
-        <v>48.9306584426422</v>
+        <v>48.8540129769647</v>
       </c>
       <c r="H15">
         <v>457</v>
@@ -1514,19 +1520,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R15" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S15" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U15" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V15" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:22">
@@ -1543,13 +1549,13 @@
         <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F16">
         <v>10</v>
       </c>
       <c r="G16">
-        <v>48.9306584426422</v>
+        <v>48.8540129769647</v>
       </c>
       <c r="H16">
         <v>457</v>
@@ -1582,19 +1588,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U16" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:22">
@@ -1611,13 +1617,13 @@
         <v>34</v>
       </c>
       <c r="E17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F17">
         <v>20</v>
       </c>
       <c r="G17">
-        <v>92.0073646875362</v>
+        <v>91.94874119691799</v>
       </c>
       <c r="H17">
         <v>2610</v>
@@ -1650,19 +1656,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U17" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:22">
@@ -1679,13 +1685,13 @@
         <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F18">
         <v>20</v>
       </c>
       <c r="G18">
-        <v>92.0073646875362</v>
+        <v>91.94874119691799</v>
       </c>
       <c r="H18">
         <v>2610</v>
@@ -1718,19 +1724,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R18" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S18" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V18" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:22">
@@ -1747,13 +1753,13 @@
         <v>34</v>
       </c>
       <c r="E19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F19">
         <v>20</v>
       </c>
       <c r="G19">
-        <v>92.0073646875362</v>
+        <v>91.94874119691799</v>
       </c>
       <c r="H19">
         <v>2610</v>
@@ -1786,19 +1792,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R19" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S19" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V19" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:22">
@@ -1815,13 +1821,13 @@
         <v>34</v>
       </c>
       <c r="E20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F20">
         <v>20</v>
       </c>
       <c r="G20">
-        <v>92.0073646875362</v>
+        <v>91.94874119691799</v>
       </c>
       <c r="H20">
         <v>2610</v>
@@ -1854,19 +1860,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R20" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S20" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T20" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:22">
@@ -1883,13 +1889,13 @@
         <v>34</v>
       </c>
       <c r="E21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
       <c r="G21">
-        <v>92.0073646875362</v>
+        <v>91.94874119691799</v>
       </c>
       <c r="H21">
         <v>2610</v>
@@ -1922,19 +1928,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U21" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V21" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:22">
@@ -1951,13 +1957,13 @@
         <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F22">
         <v>20</v>
       </c>
       <c r="G22">
-        <v>93.8717882711709</v>
+        <v>93.8169155443281</v>
       </c>
       <c r="H22">
         <v>2610</v>
@@ -1990,19 +1996,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S22" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U22" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V22" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:22">
@@ -2019,13 +2025,13 @@
         <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F23">
         <v>20</v>
       </c>
       <c r="G23">
-        <v>93.8717882711709</v>
+        <v>93.8169155443281</v>
       </c>
       <c r="H23">
         <v>2610</v>
@@ -2058,19 +2064,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R23" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T23" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V23" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:22">
@@ -2087,13 +2093,13 @@
         <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F24">
         <v>20</v>
       </c>
       <c r="G24">
-        <v>93.8717882711709</v>
+        <v>93.8169155443281</v>
       </c>
       <c r="H24">
         <v>2610</v>
@@ -2126,19 +2132,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R24" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S24" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V24" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:22">
@@ -2155,13 +2161,13 @@
         <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F25">
         <v>20</v>
       </c>
       <c r="G25">
-        <v>93.8717882711709</v>
+        <v>93.8169155443281</v>
       </c>
       <c r="H25">
         <v>2610</v>
@@ -2194,19 +2200,19 @@
         <v>5572955.19428</v>
       </c>
       <c r="R25" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="S25" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="T25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="U25" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="V25" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="26" spans="1:22">
@@ -2223,13 +2229,13 @@
         <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F26">
         <v>20</v>
       </c>
       <c r="G26">
-        <v>93.8717882711709</v>
+        <v>93.8169155443281</v>
       </c>
       <c r="H26">
         <v>2610</v>
@@ -2262,19 +2268,699 @@
         <v>5572955.19428</v>
       </c>
       <c r="R26" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" t="s">
+        <v>40</v>
+      </c>
+      <c r="T26" t="s">
+        <v>41</v>
+      </c>
+      <c r="U26" t="s">
+        <v>42</v>
+      </c>
+      <c r="V26" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <v>20</v>
+      </c>
+      <c r="G27">
+        <v>98.97951097226451</v>
+      </c>
+      <c r="H27">
+        <v>2610</v>
+      </c>
+      <c r="I27">
+        <v>342</v>
+      </c>
+      <c r="J27">
+        <v>1.6</v>
+      </c>
+      <c r="K27">
+        <v>6.4</v>
+      </c>
+      <c r="L27">
+        <v>20</v>
+      </c>
+      <c r="M27">
+        <v>115</v>
+      </c>
+      <c r="N27">
+        <v>134</v>
+      </c>
+      <c r="O27">
+        <v>257.5</v>
+      </c>
+      <c r="P27">
+        <v>1778567.25321</v>
+      </c>
+      <c r="Q27">
+        <v>5572955.19428</v>
+      </c>
+      <c r="R27" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" t="s">
+        <v>40</v>
+      </c>
+      <c r="T27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" t="s">
+        <v>42</v>
+      </c>
+      <c r="V27" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>28</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28">
+        <v>20</v>
+      </c>
+      <c r="G28">
+        <v>98.97951097226451</v>
+      </c>
+      <c r="H28">
+        <v>2610</v>
+      </c>
+      <c r="I28">
+        <v>342</v>
+      </c>
+      <c r="J28">
+        <v>1.6</v>
+      </c>
+      <c r="K28">
+        <v>6.4</v>
+      </c>
+      <c r="L28">
+        <v>20</v>
+      </c>
+      <c r="M28">
+        <v>115</v>
+      </c>
+      <c r="N28">
+        <v>134</v>
+      </c>
+      <c r="O28">
+        <v>257.5</v>
+      </c>
+      <c r="P28">
+        <v>1778567.25321</v>
+      </c>
+      <c r="Q28">
+        <v>5572955.19428</v>
+      </c>
+      <c r="R28" t="s">
+        <v>39</v>
+      </c>
+      <c r="S28" t="s">
+        <v>40</v>
+      </c>
+      <c r="T28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" t="s">
+        <v>42</v>
+      </c>
+      <c r="V28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" t="s">
+        <v>22</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29">
+        <v>20</v>
+      </c>
+      <c r="G29">
+        <v>98.97951097226451</v>
+      </c>
+      <c r="H29">
+        <v>2610</v>
+      </c>
+      <c r="I29">
+        <v>342</v>
+      </c>
+      <c r="J29">
+        <v>1.6</v>
+      </c>
+      <c r="K29">
+        <v>6.4</v>
+      </c>
+      <c r="L29">
+        <v>20</v>
+      </c>
+      <c r="M29">
+        <v>115</v>
+      </c>
+      <c r="N29">
+        <v>134</v>
+      </c>
+      <c r="O29">
+        <v>257.5</v>
+      </c>
+      <c r="P29">
+        <v>1778567.25321</v>
+      </c>
+      <c r="Q29">
+        <v>5572955.19428</v>
+      </c>
+      <c r="R29" t="s">
+        <v>39</v>
+      </c>
+      <c r="S29" t="s">
+        <v>40</v>
+      </c>
+      <c r="T29" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" t="s">
+        <v>42</v>
+      </c>
+      <c r="V29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" t="s">
+        <v>22</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30">
+        <v>20</v>
+      </c>
+      <c r="G30">
+        <v>98.97951097226451</v>
+      </c>
+      <c r="H30">
+        <v>2610</v>
+      </c>
+      <c r="I30">
+        <v>342</v>
+      </c>
+      <c r="J30">
+        <v>1.6</v>
+      </c>
+      <c r="K30">
+        <v>6.4</v>
+      </c>
+      <c r="L30">
+        <v>20</v>
+      </c>
+      <c r="M30">
+        <v>115</v>
+      </c>
+      <c r="N30">
+        <v>134</v>
+      </c>
+      <c r="O30">
+        <v>257.5</v>
+      </c>
+      <c r="P30">
+        <v>1778567.25321</v>
+      </c>
+      <c r="Q30">
+        <v>5572955.19428</v>
+      </c>
+      <c r="R30" t="s">
+        <v>39</v>
+      </c>
+      <c r="S30" t="s">
+        <v>40</v>
+      </c>
+      <c r="T30" t="s">
+        <v>41</v>
+      </c>
+      <c r="U30" t="s">
+        <v>42</v>
+      </c>
+      <c r="V30" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B31" t="s">
+        <v>27</v>
+      </c>
+      <c r="C31" t="s">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31">
+        <v>20</v>
+      </c>
+      <c r="G31">
+        <v>98.97951097226451</v>
+      </c>
+      <c r="H31">
+        <v>2610</v>
+      </c>
+      <c r="I31">
+        <v>342</v>
+      </c>
+      <c r="J31">
+        <v>1.6</v>
+      </c>
+      <c r="K31">
+        <v>6.4</v>
+      </c>
+      <c r="L31">
+        <v>20</v>
+      </c>
+      <c r="M31">
+        <v>115</v>
+      </c>
+      <c r="N31">
+        <v>134</v>
+      </c>
+      <c r="O31">
+        <v>257.5</v>
+      </c>
+      <c r="P31">
+        <v>1778567.25321</v>
+      </c>
+      <c r="Q31">
+        <v>5572955.19428</v>
+      </c>
+      <c r="R31" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31" t="s">
+        <v>40</v>
+      </c>
+      <c r="T31" t="s">
+        <v>41</v>
+      </c>
+      <c r="U31" t="s">
+        <v>42</v>
+      </c>
+      <c r="V31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" t="s">
         <v>37</v>
       </c>
-      <c r="S26" t="s">
-        <v>38</v>
-      </c>
-      <c r="T26" t="s">
-        <v>39</v>
-      </c>
-      <c r="U26" t="s">
-        <v>40</v>
-      </c>
-      <c r="V26" t="s">
+      <c r="E32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32">
+        <v>20</v>
+      </c>
+      <c r="G32">
+        <v>108.371260225646</v>
+      </c>
+      <c r="H32">
+        <v>2610</v>
+      </c>
+      <c r="I32">
+        <v>341</v>
+      </c>
+      <c r="J32">
+        <v>2.30769230769231</v>
+      </c>
+      <c r="K32">
+        <v>6.92307692307692</v>
+      </c>
+      <c r="L32">
+        <v>20</v>
+      </c>
+      <c r="M32">
+        <v>127</v>
+      </c>
+      <c r="N32">
+        <v>144.8</v>
+      </c>
+      <c r="O32">
+        <v>259</v>
+      </c>
+      <c r="P32">
+        <v>1778567.25321</v>
+      </c>
+      <c r="Q32">
+        <v>5572955.19428</v>
+      </c>
+      <c r="R32" t="s">
+        <v>39</v>
+      </c>
+      <c r="S32" t="s">
+        <v>40</v>
+      </c>
+      <c r="T32" t="s">
+        <v>41</v>
+      </c>
+      <c r="U32" t="s">
+        <v>42</v>
+      </c>
+      <c r="V32" t="s">
         <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
+      <c r="A33" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" t="s">
+        <v>24</v>
+      </c>
+      <c r="C33" t="s">
+        <v>28</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33">
+        <v>20</v>
+      </c>
+      <c r="G33">
+        <v>108.371260225646</v>
+      </c>
+      <c r="H33">
+        <v>2610</v>
+      </c>
+      <c r="I33">
+        <v>341</v>
+      </c>
+      <c r="J33">
+        <v>2.30769230769231</v>
+      </c>
+      <c r="K33">
+        <v>6.92307692307692</v>
+      </c>
+      <c r="L33">
+        <v>20</v>
+      </c>
+      <c r="M33">
+        <v>127</v>
+      </c>
+      <c r="N33">
+        <v>144.8</v>
+      </c>
+      <c r="O33">
+        <v>259</v>
+      </c>
+      <c r="P33">
+        <v>1778567.25321</v>
+      </c>
+      <c r="Q33">
+        <v>5572955.19428</v>
+      </c>
+      <c r="R33" t="s">
+        <v>39</v>
+      </c>
+      <c r="S33" t="s">
+        <v>40</v>
+      </c>
+      <c r="T33" t="s">
+        <v>41</v>
+      </c>
+      <c r="U33" t="s">
+        <v>42</v>
+      </c>
+      <c r="V33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34" t="s">
+        <v>28</v>
+      </c>
+      <c r="D34" t="s">
+        <v>37</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34">
+        <v>20</v>
+      </c>
+      <c r="G34">
+        <v>108.371260225646</v>
+      </c>
+      <c r="H34">
+        <v>2610</v>
+      </c>
+      <c r="I34">
+        <v>341</v>
+      </c>
+      <c r="J34">
+        <v>2.30769230769231</v>
+      </c>
+      <c r="K34">
+        <v>6.92307692307692</v>
+      </c>
+      <c r="L34">
+        <v>20</v>
+      </c>
+      <c r="M34">
+        <v>127</v>
+      </c>
+      <c r="N34">
+        <v>144.8</v>
+      </c>
+      <c r="O34">
+        <v>259</v>
+      </c>
+      <c r="P34">
+        <v>1778567.25321</v>
+      </c>
+      <c r="Q34">
+        <v>5572955.19428</v>
+      </c>
+      <c r="R34" t="s">
+        <v>39</v>
+      </c>
+      <c r="S34" t="s">
+        <v>40</v>
+      </c>
+      <c r="T34" t="s">
+        <v>41</v>
+      </c>
+      <c r="U34" t="s">
+        <v>42</v>
+      </c>
+      <c r="V34" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
+      <c r="A35" t="s">
+        <v>22</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35">
+        <v>20</v>
+      </c>
+      <c r="G35">
+        <v>108.371260225646</v>
+      </c>
+      <c r="H35">
+        <v>2610</v>
+      </c>
+      <c r="I35">
+        <v>341</v>
+      </c>
+      <c r="J35">
+        <v>2.30769230769231</v>
+      </c>
+      <c r="K35">
+        <v>6.92307692307692</v>
+      </c>
+      <c r="L35">
+        <v>20</v>
+      </c>
+      <c r="M35">
+        <v>127</v>
+      </c>
+      <c r="N35">
+        <v>144.8</v>
+      </c>
+      <c r="O35">
+        <v>259</v>
+      </c>
+      <c r="P35">
+        <v>1778567.25321</v>
+      </c>
+      <c r="Q35">
+        <v>5572955.19428</v>
+      </c>
+      <c r="R35" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" t="s">
+        <v>40</v>
+      </c>
+      <c r="T35" t="s">
+        <v>41</v>
+      </c>
+      <c r="U35" t="s">
+        <v>42</v>
+      </c>
+      <c r="V35" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="A36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s">
+        <v>30</v>
+      </c>
+      <c r="D36" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36">
+        <v>20</v>
+      </c>
+      <c r="G36">
+        <v>108.371260225646</v>
+      </c>
+      <c r="H36">
+        <v>2610</v>
+      </c>
+      <c r="I36">
+        <v>341</v>
+      </c>
+      <c r="J36">
+        <v>2.30769230769231</v>
+      </c>
+      <c r="K36">
+        <v>6.92307692307692</v>
+      </c>
+      <c r="L36">
+        <v>20</v>
+      </c>
+      <c r="M36">
+        <v>127</v>
+      </c>
+      <c r="N36">
+        <v>144.8</v>
+      </c>
+      <c r="O36">
+        <v>259</v>
+      </c>
+      <c r="P36">
+        <v>1778567.25321</v>
+      </c>
+      <c r="Q36">
+        <v>5572955.19428</v>
+      </c>
+      <c r="R36" t="s">
+        <v>39</v>
+      </c>
+      <c r="S36" t="s">
+        <v>40</v>
+      </c>
+      <c r="T36" t="s">
+        <v>41</v>
+      </c>
+      <c r="U36" t="s">
+        <v>42</v>
+      </c>
+      <c r="V36" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
